--- a/database/Management/MGM_Course_database.xlsx
+++ b/database/Management/MGM_Course_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\20110706\TaiGer_Transcript-Program_Comparer\database\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC552F6-2861-40B0-9881-8283584E928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B00A14-4B5D-4437-90AB-BF024A6CB0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27870" yWindow="-14010" windowWidth="21600" windowHeight="11325" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
+    <workbookView xWindow="-6975" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
   </bookViews>
   <sheets>
     <sheet name="All_MGM_Courses" sheetId="1" r:id="rId1"/>
@@ -25,238 +25,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
-  <si>
-    <t>普通物理學(一)</t>
-  </si>
-  <si>
-    <t>普通物理學實驗(一)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>微積分(一)</t>
-  </si>
-  <si>
-    <t>電路學(一)</t>
-  </si>
-  <si>
-    <t>電子學(一)</t>
-  </si>
-  <si>
-    <t>電磁學(一)</t>
-  </si>
-  <si>
-    <t>離散數學</t>
-  </si>
-  <si>
-    <t>近代物理</t>
-  </si>
-  <si>
-    <t>機率與統計</t>
-  </si>
-  <si>
-    <t>訊號與系統</t>
   </si>
   <si>
     <t>微積分(二)</t>
   </si>
   <si>
-    <t>電子學(二)</t>
-  </si>
-  <si>
     <t>線性代數</t>
-  </si>
-  <si>
-    <t>電磁學(二)</t>
-  </si>
-  <si>
-    <t>向量分析</t>
-  </si>
-  <si>
-    <t>普通物理學(二)</t>
-  </si>
-  <si>
-    <t>複變函數</t>
-  </si>
-  <si>
-    <t>數值分析</t>
-  </si>
-  <si>
-    <t>控制系統</t>
-  </si>
-  <si>
-    <t>電路學(二)</t>
-  </si>
-  <si>
-    <t>自動控制(一)</t>
-  </si>
-  <si>
-    <t>自動控制(二)</t>
-  </si>
-  <si>
-    <t>非線性控制系統</t>
-  </si>
-  <si>
-    <t>智慧型控制</t>
-  </si>
-  <si>
-    <t>電子元件與材料</t>
-  </si>
-  <si>
-    <t>電子實驗(一)</t>
-  </si>
-  <si>
-    <t>電子實驗(二)</t>
-  </si>
-  <si>
-    <t>普通物理學實驗(二)</t>
-  </si>
-  <si>
-    <t>計算機概論</t>
-  </si>
-  <si>
-    <t>微分方程</t>
-  </si>
-  <si>
-    <t>物件導向程式設計</t>
   </si>
   <si>
     <t>所有科目</t>
   </si>
   <si>
-    <t>靜力學</t>
+    <t>所有科目_英語</t>
   </si>
   <si>
-    <t>動力學</t>
+    <t>Calculus (1)</t>
   </si>
   <si>
-    <t>熱傳學</t>
+    <t>Calculus (2)</t>
   </si>
   <si>
-    <t>工程材料</t>
+    <t>Linear algebra</t>
   </si>
   <si>
-    <t>基礎程式設計一</t>
+    <t>會計學(一)</t>
   </si>
   <si>
-    <t>基礎程式設計二</t>
+    <t>Accounting (I)</t>
   </si>
   <si>
-    <t>熱力學一</t>
+    <t>會計學(二)</t>
   </si>
   <si>
-    <t>熱力學二</t>
+    <t>Accounting (II)</t>
   </si>
   <si>
-    <t>材料科學一</t>
+    <t>財務管理</t>
   </si>
   <si>
-    <t>材料科學二</t>
+    <t>Financial Management</t>
   </si>
   <si>
-    <t>材料力學二</t>
+    <t>行銷管理</t>
   </si>
   <si>
-    <t>材料力學一</t>
+    <t>Marketing Management</t>
   </si>
   <si>
-    <t>醫學工程材料</t>
+    <t>組織行為學</t>
   </si>
   <si>
-    <t>流體力學一</t>
+    <t>Organizational Behavior</t>
   </si>
   <si>
-    <t>流體力學二</t>
+    <t>作業研究(一)</t>
   </si>
   <si>
-    <t>熱處理技術</t>
+    <t>Operations Research (1)</t>
   </si>
   <si>
-    <t>機械過程預處理</t>
+    <t>作業研究(二)</t>
   </si>
   <si>
-    <t>材料結構與物性</t>
+    <t>Operation Research (2)</t>
   </si>
   <si>
-    <t>動態系統分析</t>
+    <t>商事法</t>
   </si>
   <si>
-    <t>材料流動與物流</t>
+    <t>Commercial Laws</t>
   </si>
   <si>
-    <t>輕質結構</t>
+    <t>國際貨幣金融</t>
   </si>
   <si>
-    <t>物流管理</t>
+    <t>International Money and Finance: Theory and Policies</t>
   </si>
   <si>
-    <t>塑料工程</t>
+    <t>經濟學(一)</t>
   </si>
   <si>
-    <t>能源系統</t>
+    <t>Economics (I)</t>
   </si>
   <si>
-    <t>普通化學(一)</t>
+    <t>經濟學(二)</t>
   </si>
   <si>
-    <t>普通化學(二)</t>
+    <t>Economics (II)</t>
   </si>
   <si>
-    <t>應用力學</t>
+    <t>統計學(一)</t>
   </si>
   <si>
-    <t>材料熱力學</t>
+    <t>Statistics (I)</t>
   </si>
   <si>
-    <t>有機化學</t>
+    <t>統計學(二)</t>
   </si>
   <si>
-    <t>材料物理性質</t>
+    <t>Statistics (II)</t>
   </si>
   <si>
-    <t>高分子導論</t>
+    <t>電腦程式語言</t>
   </si>
   <si>
-    <t>結晶與繞射導論</t>
+    <t>Computer Programming</t>
   </si>
   <si>
-    <t>材料實驗(一)</t>
+    <t>中等會計學(一)</t>
   </si>
   <si>
-    <t>材料實驗(二)</t>
+    <t>Intermediate Accounting (1)</t>
   </si>
   <si>
-    <t>高分子化學</t>
+    <t>Intermediate Accounting(II)</t>
   </si>
   <si>
-    <t>高分子物理</t>
+    <t>Intermediate Accounting(III)</t>
   </si>
   <si>
-    <t>高分子加工</t>
+    <t>高等會計學(一)</t>
   </si>
   <si>
-    <t>材料分析</t>
+    <t>Advanced Accounting(I)</t>
   </si>
   <si>
-    <t>半導體材料物理</t>
+    <t>高等會計學(二)</t>
   </si>
   <si>
-    <t>固態物理</t>
+    <t>Advanced Accounting(II)</t>
   </si>
   <si>
-    <t>奈米材料導論</t>
+    <t>管理學</t>
   </si>
   <si>
-    <t>材料結構與缺陷</t>
+    <t>Management</t>
   </si>
   <si>
-    <t>所有科目_英語</t>
+    <t>策略管理</t>
+  </si>
+  <si>
+    <t>Strategic Management</t>
+  </si>
+  <si>
+    <t>成本與管理會計(一)</t>
+  </si>
+  <si>
+    <t>Cost and Management Accounting (I)</t>
+  </si>
+  <si>
+    <t>成本與管理會計(二)</t>
+  </si>
+  <si>
+    <t>Cost and Management Accounting (II)</t>
+  </si>
+  <si>
+    <t>投資學</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>審計學(一)</t>
+  </si>
+  <si>
+    <t>Auditing(I)</t>
+  </si>
+  <si>
+    <t>審計學(二)</t>
+  </si>
+  <si>
+    <t>Auditing(II)</t>
+  </si>
+  <si>
+    <t>投資組合管理</t>
+  </si>
+  <si>
+    <t>Portfolio Managements</t>
+  </si>
+  <si>
+    <t>財務報表分析</t>
+  </si>
+  <si>
+    <t>Financiel Statement Analysis</t>
+  </si>
+  <si>
+    <t>Commercial Law</t>
+  </si>
+  <si>
+    <t>計量經濟學</t>
+  </si>
+  <si>
+    <t>Econometrics</t>
+  </si>
+  <si>
+    <t>國際資本市場</t>
+  </si>
+  <si>
+    <t>Introduction to International Capital Market</t>
+  </si>
+  <si>
+    <t>總體經濟學</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macroeconomics </t>
+  </si>
+  <si>
+    <t>個體經濟學</t>
+  </si>
+  <si>
+    <t>Microeconomics</t>
+  </si>
+  <si>
+    <t>中等會計學(二)</t>
+  </si>
+  <si>
+    <t>中等會計學(三)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,6 +302,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Linux Libertine G"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -334,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,11 +362,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -687,22 +698,22 @@
   <dimension ref="A1:W426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="21.09765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.4">
+    <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>74</v>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -725,10 +736,12 @@
       <c r="W1" s="4"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
+      <c r="A2" s="14" t="s">
+        <v>0</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -750,10 +763,12 @@
       <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
+      <c r="A3" s="14" t="s">
+        <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -775,10 +790,12 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
+      <c r="A4" s="14" t="s">
+        <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -800,10 +817,12 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
+      <c r="A5" s="15" t="s">
+        <v>8</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -825,10 +844,12 @@
       <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
+      <c r="A6" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -850,10 +871,12 @@
       <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
+      <c r="A7" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="H7" s="5"/>
@@ -874,10 +897,12 @@
       <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
+      <c r="A8" s="15" t="s">
+        <v>14</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="H8" s="5"/>
@@ -898,10 +923,12 @@
       <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="H9" s="5"/>
@@ -922,10 +949,12 @@
       <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="9" t="s">
-        <v>0</v>
+      <c r="A10" s="15" t="s">
+        <v>18</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="H10" s="5"/>
@@ -946,10 +975,12 @@
       <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="9" t="s">
-        <v>15</v>
+      <c r="A11" s="15" t="s">
+        <v>20</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="H11" s="5"/>
@@ -970,10 +1001,12 @@
       <c r="W11" s="7"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="9" t="s">
-        <v>1</v>
+      <c r="A12" s="15" t="s">
+        <v>22</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="H12" s="5"/>
@@ -994,10 +1027,12 @@
       <c r="W12" s="7"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="9" t="s">
-        <v>27</v>
+      <c r="A13" s="15" t="s">
+        <v>24</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="H13" s="5"/>
@@ -1018,10 +1053,12 @@
       <c r="W13" s="7"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="9" t="s">
-        <v>7</v>
+      <c r="A14" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="H14" s="5"/>
@@ -1042,10 +1079,12 @@
       <c r="W14" s="7"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="9" t="s">
-        <v>71</v>
+      <c r="A15" s="15" t="s">
+        <v>28</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="H15" s="5"/>
@@ -1066,10 +1105,12 @@
       <c r="W15" s="7"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="9" t="s">
-        <v>56</v>
+      <c r="A16" s="15" t="s">
+        <v>30</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="H16" s="5"/>
@@ -1090,10 +1131,12 @@
       <c r="W16" s="7"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="9" t="s">
-        <v>57</v>
+      <c r="A17" s="15" t="s">
+        <v>32</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="H17" s="5"/>
@@ -1114,10 +1157,12 @@
       <c r="W17" s="7"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="10" t="s">
-        <v>60</v>
+      <c r="A18" s="15" t="s">
+        <v>34</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="H18" s="5"/>
@@ -1138,10 +1183,12 @@
       <c r="W18" s="7"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="11" t="s">
-        <v>64</v>
+      <c r="A19" s="15" t="s">
+        <v>36</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="H19" s="5"/>
@@ -1162,10 +1209,12 @@
       <c r="W19" s="7"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="11" t="s">
-        <v>65</v>
+      <c r="A20" s="15" t="s">
+        <v>71</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="H20" s="5"/>
@@ -1186,10 +1235,12 @@
       <c r="W20" s="7"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="9" t="s">
-        <v>28</v>
+      <c r="A21" s="15" t="s">
+        <v>72</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="H21" s="5"/>
@@ -1210,10 +1261,12 @@
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="10" t="s">
-        <v>36</v>
+      <c r="A22" s="15" t="s">
+        <v>40</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="H22" s="5"/>
@@ -1234,10 +1287,12 @@
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="10" t="s">
-        <v>37</v>
+      <c r="A23" s="15" t="s">
+        <v>42</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="H23" s="5"/>
@@ -1258,10 +1313,12 @@
       <c r="W23" s="7"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="9" t="s">
-        <v>30</v>
+      <c r="A24" s="15" t="s">
+        <v>44</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="H24" s="5"/>
@@ -1282,10 +1339,12 @@
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="9" t="s">
-        <v>20</v>
+      <c r="A25" s="15" t="s">
+        <v>46</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="H25" s="5"/>
@@ -1306,10 +1365,12 @@
       <c r="W25" s="7"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="9" t="s">
-        <v>21</v>
+      <c r="A26" s="15" t="s">
+        <v>48</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="H26" s="5"/>
@@ -1330,10 +1391,12 @@
       <c r="W26" s="7"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="9" t="s">
-        <v>23</v>
+      <c r="A27" s="15" t="s">
+        <v>50</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="H27" s="5"/>
@@ -1354,10 +1417,12 @@
       <c r="W27" s="7"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="9" t="s">
-        <v>50</v>
+      <c r="A28" s="15" t="s">
+        <v>52</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="H28" s="5"/>
@@ -1378,10 +1443,12 @@
       <c r="W28" s="7"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="9" t="s">
-        <v>18</v>
+      <c r="A29" s="15" t="s">
+        <v>54</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="H29" s="5"/>
@@ -1402,10 +1469,12 @@
       <c r="W29" s="7"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="10" t="s">
-        <v>22</v>
+      <c r="A30" s="15" t="s">
+        <v>56</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="H30" s="5"/>
@@ -1426,10 +1495,12 @@
       <c r="W30" s="7"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="11" t="s">
-        <v>70</v>
+      <c r="A31" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="H31" s="5"/>
@@ -1450,10 +1521,12 @@
       <c r="W31" s="7"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="9" t="s">
-        <v>25</v>
+      <c r="A32" s="15" t="s">
+        <v>60</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="H32" s="5"/>
@@ -1474,10 +1547,12 @@
       <c r="W32" s="7"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="9" t="s">
-        <v>26</v>
+      <c r="A33" s="15" t="s">
+        <v>22</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="H33" s="5"/>
@@ -1498,10 +1573,12 @@
       <c r="W33" s="7"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="9" t="s">
-        <v>4</v>
+      <c r="A34" s="15" t="s">
+        <v>63</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="H34" s="5"/>
@@ -1522,10 +1599,12 @@
       <c r="W34" s="7"/>
     </row>
     <row r="35" spans="1:23">
-      <c r="A35" s="9" t="s">
-        <v>11</v>
+      <c r="A35" s="15" t="s">
+        <v>65</v>
       </c>
-      <c r="B35" s="5"/>
+      <c r="B35" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="H35" s="5"/>
@@ -1546,10 +1625,12 @@
       <c r="W35" s="7"/>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="9" t="s">
-        <v>3</v>
+      <c r="A36" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="B36" s="5"/>
+      <c r="B36" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="H36" s="5"/>
@@ -1570,10 +1651,12 @@
       <c r="W36" s="7"/>
     </row>
     <row r="37" spans="1:23">
-      <c r="A37" s="9" t="s">
-        <v>19</v>
+      <c r="A37" s="15" t="s">
+        <v>69</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="H37" s="5"/>
@@ -1594,9 +1677,7 @@
       <c r="W37" s="7"/>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A38" s="9"/>
       <c r="B38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1618,9 +1699,7 @@
       <c r="W38" s="7"/>
     </row>
     <row r="39" spans="1:23">
-      <c r="A39" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="A39" s="9"/>
       <c r="B39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1642,9 +1721,7 @@
       <c r="W39" s="7"/>
     </row>
     <row r="40" spans="1:23">
-      <c r="A40" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A40" s="9"/>
       <c r="B40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1666,9 +1743,7 @@
       <c r="W40" s="7"/>
     </row>
     <row r="41" spans="1:23">
-      <c r="A41" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="A41" s="9"/>
       <c r="B41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1690,9 +1765,7 @@
       <c r="W41" s="7"/>
     </row>
     <row r="42" spans="1:23">
-      <c r="A42" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="A42" s="9"/>
       <c r="B42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1714,9 +1787,7 @@
       <c r="W42" s="7"/>
     </row>
     <row r="43" spans="1:23">
-      <c r="A43" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="A43" s="10"/>
       <c r="B43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1738,9 +1809,7 @@
       <c r="W43" s="7"/>
     </row>
     <row r="44" spans="1:23">
-      <c r="A44" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="A44" s="11"/>
       <c r="B44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1762,9 +1831,7 @@
       <c r="W44" s="7"/>
     </row>
     <row r="45" spans="1:23">
-      <c r="A45" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="A45" s="11"/>
       <c r="B45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1786,9 +1853,7 @@
       <c r="W45" s="7"/>
     </row>
     <row r="46" spans="1:23">
-      <c r="A46" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="A46" s="11"/>
       <c r="B46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1810,9 +1875,7 @@
       <c r="W46" s="7"/>
     </row>
     <row r="47" spans="1:23">
-      <c r="A47" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A47" s="11"/>
       <c r="B47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1834,9 +1897,7 @@
       <c r="W47" s="7"/>
     </row>
     <row r="48" spans="1:23">
-      <c r="A48" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="A48" s="11"/>
       <c r="B48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1858,9 +1919,7 @@
       <c r="W48" s="7"/>
     </row>
     <row r="49" spans="1:23">
-      <c r="A49" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="A49" s="11"/>
       <c r="B49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1882,9 +1941,7 @@
       <c r="W49" s="7"/>
     </row>
     <row r="50" spans="1:23">
-      <c r="A50" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="A50" s="11"/>
       <c r="B50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1906,9 +1963,7 @@
       <c r="W50" s="7"/>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="A51" s="11"/>
       <c r="B51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1930,9 +1985,7 @@
       <c r="W51" s="7"/>
     </row>
     <row r="52" spans="1:23">
-      <c r="A52" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="A52" s="11"/>
       <c r="B52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1954,9 +2007,7 @@
       <c r="W52" s="7"/>
     </row>
     <row r="53" spans="1:23">
-      <c r="A53" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="A53" s="11"/>
       <c r="B53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -1978,9 +2029,7 @@
       <c r="W53" s="7"/>
     </row>
     <row r="54" spans="1:23">
-      <c r="A54" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="A54" s="11"/>
       <c r="B54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2002,9 +2051,7 @@
       <c r="W54" s="7"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="A55" s="11"/>
       <c r="B55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2026,9 +2073,7 @@
       <c r="W55" s="7"/>
     </row>
     <row r="56" spans="1:23">
-      <c r="A56" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="A56" s="11"/>
       <c r="B56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2050,9 +2095,7 @@
       <c r="W56" s="7"/>
     </row>
     <row r="57" spans="1:23">
-      <c r="A57" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="A57" s="11"/>
       <c r="B57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2074,9 +2117,7 @@
       <c r="W57" s="7"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A58" s="11"/>
       <c r="B58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2098,9 +2139,7 @@
       <c r="W58" s="7"/>
     </row>
     <row r="59" spans="1:23">
-      <c r="A59" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="A59" s="11"/>
       <c r="B59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2122,9 +2161,7 @@
       <c r="W59" s="7"/>
     </row>
     <row r="60" spans="1:23">
-      <c r="A60" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="A60" s="11"/>
       <c r="B60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -2146,9 +2183,7 @@
       <c r="W60" s="7"/>
     </row>
     <row r="61" spans="1:23">
-      <c r="A61" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="A61" s="11"/>
       <c r="B61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -2170,9 +2205,7 @@
       <c r="W61" s="7"/>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="A62" s="11"/>
       <c r="B62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2194,9 +2227,7 @@
       <c r="W62" s="7"/>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="A63" s="11"/>
       <c r="B63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2218,9 +2249,7 @@
       <c r="W63" s="7"/>
     </row>
     <row r="64" spans="1:23">
-      <c r="A64" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="A64" s="11"/>
       <c r="B64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -2242,9 +2271,7 @@
       <c r="W64" s="7"/>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="A65" s="11"/>
       <c r="B65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -2266,9 +2293,7 @@
       <c r="W65" s="7"/>
     </row>
     <row r="66" spans="1:23">
-      <c r="A66" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="A66" s="11"/>
       <c r="B66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -2290,9 +2315,7 @@
       <c r="W66" s="7"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A67" s="11"/>
       <c r="B67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -2314,9 +2337,7 @@
       <c r="W67" s="7"/>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="A68" s="11"/>
       <c r="B68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2338,9 +2359,7 @@
       <c r="W68" s="7"/>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="A69" s="11"/>
       <c r="B69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -2362,9 +2381,7 @@
       <c r="W69" s="7"/>
     </row>
     <row r="70" spans="1:23">
-      <c r="A70" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="A70" s="11"/>
       <c r="B70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -2386,9 +2403,7 @@
       <c r="W70" s="7"/>
     </row>
     <row r="71" spans="1:23">
-      <c r="A71" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="A71" s="11"/>
       <c r="B71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -2410,9 +2425,7 @@
       <c r="W71" s="7"/>
     </row>
     <row r="72" spans="1:23">
-      <c r="A72" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="A72" s="11"/>
       <c r="B72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -2434,9 +2447,7 @@
       <c r="W72" s="7"/>
     </row>
     <row r="73" spans="1:23">
-      <c r="A73" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="A73" s="11"/>
       <c r="B73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2458,9 +2469,7 @@
       <c r="W73" s="7"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="A74" s="11"/>
       <c r="B74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>

--- a/database/Management/MGM_Course_database.xlsx
+++ b/database/Management/MGM_Course_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\20110706\TaiGer_Transcript-Program_Comparer\database\Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c520cbcd5c1ba828/20110706/TaiGer_Transcript-Program_Comparer/database/Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B00A14-4B5D-4437-90AB-BF024A6CB0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{32B00A14-4B5D-4437-90AB-BF024A6CB0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A02FFF1-9A68-4FC9-B369-372674105499}"/>
   <bookViews>
-    <workbookView xWindow="-6975" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
+    <workbookView xWindow="-6975" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
   </bookViews>
   <sheets>
     <sheet name="All_MGM_Courses" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>微積分(一)</t>
   </si>
@@ -245,6 +245,36 @@
   <si>
     <t>中等會計學(三)</t>
   </si>
+  <si>
+    <t>微分方程</t>
+  </si>
+  <si>
+    <t>Differential equation</t>
+  </si>
+  <si>
+    <t>離散數學</t>
+  </si>
+  <si>
+    <t>discrete mathematics</t>
+  </si>
+  <si>
+    <t>機率與統計</t>
+  </si>
+  <si>
+    <t>Probability and Statistics</t>
+  </si>
+  <si>
+    <t>數值分析</t>
+  </si>
+  <si>
+    <t>Numerical Analysis</t>
+  </si>
+  <si>
+    <t>複變函數</t>
+  </si>
+  <si>
+    <t>Complex function</t>
+  </si>
 </sst>
 </file>
 
@@ -333,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,7 +391,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -379,6 +408,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -697,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C323114-BC5F-49C1-9F53-9EA9AB7CC060}">
   <dimension ref="A1:W426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -712,7 +753,7 @@
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="4"/>
@@ -736,10 +777,10 @@
       <c r="W1" s="4"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4"/>
@@ -763,10 +804,10 @@
       <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4"/>
@@ -790,10 +831,10 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4"/>
@@ -817,10 +858,10 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5"/>
@@ -844,10 +885,10 @@
       <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5"/>
@@ -871,10 +912,10 @@
       <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5"/>
@@ -897,10 +938,10 @@
       <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5"/>
@@ -923,10 +964,10 @@
       <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="5"/>
@@ -949,10 +990,10 @@
       <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="5"/>
@@ -975,10 +1016,10 @@
       <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5"/>
@@ -1001,10 +1042,10 @@
       <c r="W11" s="7"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="5"/>
@@ -1027,10 +1068,10 @@
       <c r="W12" s="7"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="5"/>
@@ -1053,10 +1094,10 @@
       <c r="W13" s="7"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="5"/>
@@ -1079,10 +1120,10 @@
       <c r="W14" s="7"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="5"/>
@@ -1105,10 +1146,10 @@
       <c r="W15" s="7"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="5"/>
@@ -1131,10 +1172,10 @@
       <c r="W16" s="7"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="5"/>
@@ -1157,10 +1198,10 @@
       <c r="W17" s="7"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="5"/>
@@ -1183,10 +1224,10 @@
       <c r="W18" s="7"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="5"/>
@@ -1209,10 +1250,10 @@
       <c r="W19" s="7"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="5"/>
@@ -1235,10 +1276,10 @@
       <c r="W20" s="7"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="5"/>
@@ -1261,10 +1302,10 @@
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="5"/>
@@ -1287,10 +1328,10 @@
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="5"/>
@@ -1313,10 +1354,10 @@
       <c r="W23" s="7"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="5"/>
@@ -1339,10 +1380,10 @@
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="5"/>
@@ -1365,10 +1406,10 @@
       <c r="W25" s="7"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="5"/>
@@ -1391,10 +1432,10 @@
       <c r="W26" s="7"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="5"/>
@@ -1417,10 +1458,10 @@
       <c r="W27" s="7"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="5"/>
@@ -1443,10 +1484,10 @@
       <c r="W28" s="7"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="5"/>
@@ -1469,10 +1510,10 @@
       <c r="W29" s="7"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="5"/>
@@ -1495,10 +1536,10 @@
       <c r="W30" s="7"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D31" s="5"/>
@@ -1521,10 +1562,10 @@
       <c r="W31" s="7"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="5"/>
@@ -1547,10 +1588,10 @@
       <c r="W32" s="7"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="5"/>
@@ -1573,10 +1614,10 @@
       <c r="W33" s="7"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D34" s="5"/>
@@ -1599,10 +1640,10 @@
       <c r="W34" s="7"/>
     </row>
     <row r="35" spans="1:23">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D35" s="5"/>
@@ -1625,10 +1666,10 @@
       <c r="W35" s="7"/>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="5"/>
@@ -1651,10 +1692,10 @@
       <c r="W36" s="7"/>
     </row>
     <row r="37" spans="1:23">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>70</v>
       </c>
       <c r="D37" s="5"/>
@@ -1676,118 +1717,140 @@
       <c r="V37" s="5"/>
       <c r="W37" s="7"/>
     </row>
-    <row r="38" spans="1:23">
-      <c r="A38" s="9"/>
-      <c r="B38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="7"/>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="A39" s="9"/>
-      <c r="B39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="7"/>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" s="9"/>
-      <c r="B40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="7"/>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="A41" s="9"/>
-      <c r="B41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="7"/>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" s="9"/>
-      <c r="B42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
+    <row r="38" spans="1:23" s="12" customFormat="1" ht="30.6">
+      <c r="A38" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="20"/>
+    </row>
+    <row r="39" spans="1:23" s="12" customFormat="1" ht="30.6">
+      <c r="A39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="20"/>
+    </row>
+    <row r="40" spans="1:23" s="12" customFormat="1" ht="30.6">
+      <c r="A40" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="20"/>
+    </row>
+    <row r="41" spans="1:23" s="12" customFormat="1" ht="30.6">
+      <c r="A41" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="20"/>
+    </row>
+    <row r="42" spans="1:23" s="12" customFormat="1">
+      <c r="A42" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="7"/>
+      <c r="W42" s="20"/>
     </row>
     <row r="43" spans="1:23">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1809,7 +1872,7 @@
       <c r="W43" s="7"/>
     </row>
     <row r="44" spans="1:23">
-      <c r="A44" s="11"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1831,7 +1894,7 @@
       <c r="W44" s="7"/>
     </row>
     <row r="45" spans="1:23">
-      <c r="A45" s="11"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1853,7 +1916,7 @@
       <c r="W45" s="7"/>
     </row>
     <row r="46" spans="1:23">
-      <c r="A46" s="11"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1875,7 +1938,7 @@
       <c r="W46" s="7"/>
     </row>
     <row r="47" spans="1:23">
-      <c r="A47" s="11"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1897,7 +1960,7 @@
       <c r="W47" s="7"/>
     </row>
     <row r="48" spans="1:23">
-      <c r="A48" s="11"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1919,7 +1982,7 @@
       <c r="W48" s="7"/>
     </row>
     <row r="49" spans="1:23">
-      <c r="A49" s="11"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1941,7 +2004,7 @@
       <c r="W49" s="7"/>
     </row>
     <row r="50" spans="1:23">
-      <c r="A50" s="11"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1963,7 +2026,7 @@
       <c r="W50" s="7"/>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="11"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1985,7 +2048,7 @@
       <c r="W51" s="7"/>
     </row>
     <row r="52" spans="1:23">
-      <c r="A52" s="11"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2007,7 +2070,7 @@
       <c r="W52" s="7"/>
     </row>
     <row r="53" spans="1:23">
-      <c r="A53" s="11"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2029,7 +2092,7 @@
       <c r="W53" s="7"/>
     </row>
     <row r="54" spans="1:23">
-      <c r="A54" s="11"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2051,7 +2114,7 @@
       <c r="W54" s="7"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="11"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2073,7 +2136,7 @@
       <c r="W55" s="7"/>
     </row>
     <row r="56" spans="1:23">
-      <c r="A56" s="11"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2095,7 +2158,7 @@
       <c r="W56" s="7"/>
     </row>
     <row r="57" spans="1:23">
-      <c r="A57" s="11"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2117,7 +2180,7 @@
       <c r="W57" s="7"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="11"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2139,7 +2202,7 @@
       <c r="W58" s="7"/>
     </row>
     <row r="59" spans="1:23">
-      <c r="A59" s="11"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2161,7 +2224,7 @@
       <c r="W59" s="7"/>
     </row>
     <row r="60" spans="1:23">
-      <c r="A60" s="11"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -2183,7 +2246,7 @@
       <c r="W60" s="7"/>
     </row>
     <row r="61" spans="1:23">
-      <c r="A61" s="11"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -2205,7 +2268,7 @@
       <c r="W61" s="7"/>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="11"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2227,7 +2290,7 @@
       <c r="W62" s="7"/>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="11"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2249,7 +2312,7 @@
       <c r="W63" s="7"/>
     </row>
     <row r="64" spans="1:23">
-      <c r="A64" s="11"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -2271,7 +2334,7 @@
       <c r="W64" s="7"/>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="11"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -2293,7 +2356,7 @@
       <c r="W65" s="7"/>
     </row>
     <row r="66" spans="1:23">
-      <c r="A66" s="11"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -2315,7 +2378,7 @@
       <c r="W66" s="7"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="11"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -2337,7 +2400,7 @@
       <c r="W67" s="7"/>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="11"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2359,7 +2422,7 @@
       <c r="W68" s="7"/>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="11"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -2381,7 +2444,7 @@
       <c r="W69" s="7"/>
     </row>
     <row r="70" spans="1:23">
-      <c r="A70" s="11"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -2403,7 +2466,7 @@
       <c r="W70" s="7"/>
     </row>
     <row r="71" spans="1:23">
-      <c r="A71" s="11"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -2425,7 +2488,7 @@
       <c r="W71" s="7"/>
     </row>
     <row r="72" spans="1:23">
-      <c r="A72" s="11"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -2447,7 +2510,7 @@
       <c r="W72" s="7"/>
     </row>
     <row r="73" spans="1:23">
-      <c r="A73" s="11"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2469,7 +2532,7 @@
       <c r="W73" s="7"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="11"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
